--- a/DataVisualization.xlsx
+++ b/DataVisualization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellis\Documents\CSULB\PR\CECS550Project-main\CECS550Project-main\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA48EF4-3083-47A0-BFC8-27B0D7D618B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2A480E-4A83-4FDB-8456-3B88A45BC673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="5265" windowWidth="21600" windowHeight="11235" xr2:uid="{56146A69-26EF-4291-90A9-1B64F00A9ADA}"/>
+    <workbookView xWindow="-21888" yWindow="1332" windowWidth="21624" windowHeight="11244" xr2:uid="{56146A69-26EF-4291-90A9-1B64F00A9ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Bar</t>
   </si>
   <si>
-    <t>Distribution of Action Types</t>
-  </si>
-  <si>
-    <t>Distribution of user actions in different categories, merchants, or brands.</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -75,6 +69,54 @@
   </si>
   <si>
     <t>Trend of User Actions over Time</t>
+  </si>
+  <si>
+    <t>Distribution of Action Types by count</t>
+  </si>
+  <si>
+    <t>Pie</t>
+  </si>
+  <si>
+    <t>Distribution of Action Types by percentage</t>
+  </si>
+  <si>
+    <t>Distribution of Action Types by category</t>
+  </si>
+  <si>
+    <t>Violin Plot</t>
+  </si>
+  <si>
+    <t>Distribution of Age Range by Action Type</t>
+  </si>
+  <si>
+    <t>Heatmap</t>
+  </si>
+  <si>
+    <t>Frequency of Action Type by Age Range and Gender</t>
+  </si>
+  <si>
+    <t>Distribution of Repeat and Non-repeat Buyers</t>
+  </si>
+  <si>
+    <t>Scatter Plot</t>
+  </si>
+  <si>
+    <t>Relationship between User ID and Merchant ID</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Top 10 Merchants with the Most Repeat Buyers</t>
+  </si>
+  <si>
+    <t>Top 10 Merchants with the Most Non-Repeat Buyers</t>
+  </si>
+  <si>
+    <t>Top 10 Users with the Most Repeat Buyers</t>
+  </si>
+  <si>
+    <t>Top 10 Users with the Most Non-Repeat Buyers</t>
   </si>
 </sst>
 </file>
@@ -435,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC42E35-DAEC-49EB-91A0-B3042D980F7B}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="99.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -459,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,46 +515,64 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -522,10 +582,108 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
